--- a/data(csv,xlsx)/preprocessed_data/total_pop(시군구별_65세이상_인구수).xlsx
+++ b/data(csv,xlsx)/preprocessed_data/total_pop(시군구별_65세이상_인구수).xlsx
@@ -5,23 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hufs365-my.sharepoint.com/personal/jb7458_o365_hufs_ac_kr/Documents/강의/빅데이터와정치/팀플/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hufs365-my.sharepoint.com/personal/jb7458_o365_hufs_ac_kr/Documents/강의/빅데이터와정치/팀플/data(csv,xlsx)/preprocessed_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AEAAAF11-3DD4-0D4F-A41B-C1A02DB6AB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{678A2292-FE63-2346-8676-AEDDEFFD5773}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{AEAAAF11-3DD4-0D4F-A41B-C1A02DB6AB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D90F45F6-A1C2-954B-8804-CA3B9C032645}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4640" yWindow="3200" windowWidth="23920" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
     <sheet name="메타정보" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">데이터!$A$1:$B$180</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
   <si>
     <t>시·군·구별(2)</t>
   </si>
@@ -617,10 +620,6 @@
   </si>
   <si>
     <t>건강보험_대상자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65세이상 인구 생각하면됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,17 +744,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -773,10 +774,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,38 +1073,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" ht="20" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1115,708 +1109,708 @@
         <v>8319978</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>36044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+        <v>114431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>36640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+        <v>102439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
-        <v>42495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+        <v>81946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>27570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+        <v>69449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="B9" s="1">
-        <v>28172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+        <v>69087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>37266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+        <v>67973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>33415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+        <v>67241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1">
+        <v>64822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>61716</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>67973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="B14" s="1">
-        <v>38521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+        <v>60938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
-        <v>38251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+        <v>60735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>114431</v>
+        <v>58697</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="B17" s="1">
-        <v>41349</v>
+        <v>57868</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="B18" s="1">
-        <v>67241</v>
+        <v>56209</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
-        <v>17697</v>
+        <v>54239</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B20" s="1">
-        <v>39250</v>
+        <v>52909</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1">
-        <v>34954</v>
+        <v>52781</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="20" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1">
-        <v>69449</v>
+        <v>52661</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1">
-        <v>38268</v>
+        <v>51473</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
-        <v>38852</v>
+        <v>50672</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>10038</v>
+        <v>50290</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1">
-        <v>26052</v>
+        <v>48635</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
-        <v>102439</v>
+        <v>48431</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1">
-        <v>23236</v>
+        <v>48088</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1">
-        <v>50672</v>
+        <v>46237</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B30" s="1">
-        <v>36538</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1">
-        <v>22814</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1">
-        <v>39935</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1">
-        <v>38634</v>
+        <v>43614</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1">
-        <v>58697</v>
+        <v>42665</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>50290</v>
+        <v>42495</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1">
-        <v>64822</v>
+        <v>41349</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1">
-        <v>31718</v>
+        <v>41055</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="B38" s="1">
-        <v>33322</v>
+        <v>40191</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1">
-        <v>60735</v>
+        <v>39935</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1">
-        <v>81946</v>
+        <v>39790</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1">
-        <v>54239</v>
+        <v>39250</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B42" s="1">
-        <v>35897</v>
+        <v>38852</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1">
-        <v>29007</v>
+        <v>38634</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1">
-        <v>24333</v>
+        <v>38521</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1">
-        <v>10777</v>
+        <v>38268</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1">
-        <v>15705</v>
+        <v>38251</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1">
-        <v>31040</v>
+        <v>37692</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
-        <v>48431</v>
+        <v>37266</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1">
-        <v>52661</v>
+        <v>37183</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="B50" s="1">
-        <v>43973</v>
+        <v>37179</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
-        <v>17533</v>
+        <v>36640</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1">
-        <v>9836</v>
+        <v>36538</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="B53" s="1">
-        <v>15003</v>
+        <v>36044</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B54" s="1">
-        <v>15726</v>
+        <v>35897</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B55" s="1">
-        <v>18232</v>
+        <v>35778</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1">
-        <v>13796</v>
+        <v>35594</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1">
-        <v>11168</v>
+        <v>34954</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="B58" s="1">
-        <v>11815</v>
+        <v>34641</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B59" s="1">
-        <v>9870</v>
+        <v>33415</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B60" s="1">
-        <v>9650</v>
+        <v>33322</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="B61" s="1">
-        <v>5351</v>
+        <v>32960</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B62" s="1">
-        <v>4419</v>
+        <v>32808</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B63" s="1">
-        <v>6481</v>
+        <v>31811</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B64" s="1">
-        <v>7677</v>
+        <v>31718</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B65" s="1">
-        <v>8026</v>
+        <v>31521</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B66" s="1">
-        <v>29046</v>
+        <v>31040</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>28960</v>
+        <v>30416</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="20" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1">
-        <v>30416</v>
+        <v>29617</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="20" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1">
-        <v>25129</v>
+        <v>29415</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="20" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="B70" s="1">
-        <v>41055</v>
+        <v>29302</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="20" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1">
-        <v>28470</v>
+        <v>29046</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="20" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B72" s="1">
-        <v>10911</v>
+        <v>29007</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="20" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B73" s="1">
-        <v>14780</v>
+        <v>28965</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="20" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B74" s="1">
-        <v>14519</v>
+        <v>28960</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="20" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1">
-        <v>6378</v>
+        <v>28470</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="20" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B76" s="1">
-        <v>14026</v>
+        <v>28296</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="20" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1">
-        <v>12923</v>
+        <v>28172</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="20" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1">
-        <v>19516</v>
+        <v>27825</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="20" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="B79" s="1">
-        <v>8704</v>
+        <v>27789</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="20" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B80" s="1">
-        <v>37183</v>
+        <v>27585</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="20" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1">
-        <v>35778</v>
+        <v>27570</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="20" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B82" s="1">
-        <v>26924</v>
+        <v>27017</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="20" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1">
-        <v>25331</v>
+        <v>26924</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="20" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B84" s="1">
-        <v>42665</v>
+        <v>26052</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="20" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B85" s="1">
-        <v>32808</v>
+        <v>25331</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="20" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B86" s="1">
-        <v>29415</v>
+        <v>25129</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="20" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B87" s="1">
-        <v>5347</v>
+        <v>24937</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="20" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B88" s="1">
-        <v>31811</v>
+        <v>24735</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="20" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B89" s="1">
-        <v>15772</v>
+        <v>24333</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="20" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="B90" s="1">
-        <v>21993</v>
+        <v>24252</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="20" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>18312</v>
+        <v>24220</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="20" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B92" s="1">
-        <v>10924</v>
+        <v>24216</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="20" customHeight="1">
@@ -1829,74 +1823,74 @@
     </row>
     <row r="94" spans="1:2" ht="20" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="B94" s="1">
-        <v>24220</v>
+        <v>23615</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="20" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B95" s="1">
-        <v>19416</v>
+        <v>23553</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="20" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B96" s="1">
-        <v>51473</v>
+        <v>23236</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="20" customHeight="1">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B97" s="1">
-        <v>44285</v>
+        <v>22814</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="20" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B98" s="1">
-        <v>48088</v>
+        <v>21993</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="20" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>52781</v>
+        <v>21521</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="20" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B100" s="1">
-        <v>28296</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="20" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="B101" s="1">
-        <v>21521</v>
+        <v>21033</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="20" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="B102" s="1">
-        <v>24216</v>
+        <v>20696</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="20" customHeight="1">
@@ -1909,546 +1903,546 @@
     </row>
     <row r="104" spans="1:2" ht="20" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B104" s="1">
-        <v>8548</v>
+        <v>20040</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="20" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B105" s="1">
-        <v>7697</v>
+        <v>19516</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="20" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B106" s="1">
-        <v>7328</v>
+        <v>19416</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="20" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="B107" s="1">
-        <v>9547</v>
+        <v>18430</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="20" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B108" s="1">
-        <v>9021</v>
+        <v>18312</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="20" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B109" s="1">
-        <v>18040</v>
+        <v>18232</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="20" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" s="1">
-        <v>16357</v>
+        <v>18040</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="20" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="B111" s="1">
-        <v>35594</v>
+        <v>17697</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="20" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B112" s="1">
-        <v>52909</v>
+        <v>17696</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="20" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="B113" s="1">
-        <v>43614</v>
+        <v>17533</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="20" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B114" s="1">
-        <v>24937</v>
+        <v>16886</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="20" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="B115" s="1">
-        <v>20040</v>
+        <v>16603</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="20" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="B116" s="1">
-        <v>13874</v>
+        <v>16563</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="20" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="B117" s="1">
-        <v>9538</v>
+        <v>16380</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="20" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B118" s="1">
-        <v>8399</v>
+        <v>16357</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="20" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>24735</v>
+        <v>16329</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="20" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B120" s="1">
-        <v>14795</v>
+        <v>15772</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="20" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="B121" s="1">
-        <v>16329</v>
+        <v>15726</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="20" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="B122" s="1">
-        <v>12198</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="20" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B123" s="1">
-        <v>11420</v>
+        <v>15705</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="20" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="B124" s="1">
-        <v>21192</v>
+        <v>15678</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="20" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B125" s="1">
-        <v>14063</v>
+        <v>15613</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="20" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="B126" s="1">
-        <v>16886</v>
+        <v>15582</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="20" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>11274</v>
+        <v>15516</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="20" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="B128" s="1">
-        <v>14653</v>
+        <v>15003</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="20" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B129" s="1">
-        <v>12782</v>
+        <v>14919</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="20" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B130" s="1">
-        <v>15516</v>
+        <v>14795</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="20" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="B131" s="1">
-        <v>9763</v>
+        <v>14780</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="20" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B132" s="1">
-        <v>13599</v>
+        <v>14653</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="20" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B133" s="1">
-        <v>39790</v>
+        <v>14519</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="20" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B134" s="1">
-        <v>46237</v>
+        <v>14063</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="20" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B135" s="1">
-        <v>56209</v>
+        <v>14026</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="20" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B136" s="1">
-        <v>31521</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="20" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="B137" s="1">
-        <v>37692</v>
+        <v>13796</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="20" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B138" s="1">
-        <v>40191</v>
+        <v>13649</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="20" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B139" s="1">
-        <v>27017</v>
+        <v>13599</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="20" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B140" s="1">
-        <v>27789</v>
+        <v>13019</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="20" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B141" s="1">
-        <v>29617</v>
+        <v>12923</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="20" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B142" s="1">
-        <v>21033</v>
+        <v>12815</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="20" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B143" s="1">
-        <v>44459</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="20" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B144" s="1">
-        <v>9273</v>
+        <v>12735</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="20" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="B145" s="1">
-        <v>20696</v>
+        <v>12458</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="20" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B146" s="1">
-        <v>9009</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="20" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="B147" s="1">
-        <v>5905</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="20" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B148" s="1">
-        <v>12815</v>
+        <v>11420</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="20" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B149" s="1">
-        <v>15613</v>
+        <v>11274</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="20" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="B150" s="1">
-        <v>9519</v>
+        <v>11168</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="20" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1">
-        <v>13649</v>
+        <v>11150</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="20" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="B152" s="1">
-        <v>17696</v>
+        <v>10924</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="20" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="B153" s="1">
-        <v>16380</v>
+        <v>10911</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="20" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="B154" s="1">
-        <v>11150</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="20" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="B155" s="1">
-        <v>13019</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="20" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="B156" s="1">
-        <v>2272</v>
+        <v>9870</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="20" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="B157" s="1">
-        <v>29302</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="20" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B158" s="1">
-        <v>23553</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="20" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="B159" s="1">
-        <v>37179</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="20" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="B160" s="1">
-        <v>32960</v>
+        <v>9547</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="20" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="B161" s="1">
-        <v>27825</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="20" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B162" s="1">
-        <v>57868</v>
+        <v>9519</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="20" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B163" s="1">
-        <v>24252</v>
+        <v>9508</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="20" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B164" s="1">
-        <v>23615</v>
+        <v>9273</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="20" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="B165" s="1">
-        <v>60938</v>
+        <v>9021</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="20" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B166" s="1">
-        <v>28965</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="20" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="B167" s="1">
-        <v>27585</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="20" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="B168" s="1">
-        <v>48635</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="20" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B169" s="1">
-        <v>9508</v>
+        <v>8399</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="20" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B170" s="1">
-        <v>15723</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="20" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="B171" s="1">
-        <v>18430</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="20" customHeight="1">
@@ -2456,71 +2450,71 @@
         <v>61</v>
       </c>
       <c r="B172" s="1">
-        <v>15582</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="20" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B173" s="1">
-        <v>15678</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="20" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="B174" s="1">
-        <v>14919</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="20" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="B175" s="1">
-        <v>12458</v>
+        <v>6378</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="20" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B176" s="1">
-        <v>12735</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="20" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="B177" s="1">
-        <v>16563</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="20" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="B178" s="1">
-        <v>16603</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="20" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="B179" s="1">
-        <v>69087</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="20" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B180" s="1">
-        <v>34641</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="20" customHeight="1"/>
@@ -2533,6 +2527,11 @@
     <row r="188" spans="1:2" ht="20" customHeight="1"/>
     <row r="189" spans="1:2" ht="20" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:B180" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B180">
+      <sortCondition descending="1" ref="B1:B180"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
